--- a/biology/Mycologie/Xerocomellus_cisalpinus/Xerocomellus_cisalpinus.xlsx
+++ b/biology/Mycologie/Xerocomellus_cisalpinus/Xerocomellus_cisalpinus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bolet cisalpin, Bolet transalpin
 Xerocomellus cisalpinus, le Bolet cisalpin, est une espèce de champignon (Fungi) basidiomycète du genre Xerocomellus dans la famille des Boletaceae. Comestible moyen, il est caractérisé par sa chair nettement bleuissante dans la moitié inférieure de son pied à la coupe et son habitat typiquement subalpin.
@@ -512,15 +524,13 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le nom correct complet (avec auteur) de ce taxon est Xerocomellus cisalpinus (Simonini, H.Ladurner &amp; Peintner) Klofac[1].
-L'espèce a été initialement classée dans le genre Xerocomus sous le basionyme Xerocomus cisalpinus Simonini, H.Ladurner &amp; Peintner[1].
-Synonymes
-Xerocomellus cisalpinus a pour synonymes[1] :
-Boletus cisalpinus (Simonini, H.Ladurner &amp; Peintner) Watling &amp; A.E.Hills
-Xerocomus cisalpinus Simonini, H.Ladurner &amp; Peintner
-Xerocomus gracilis int</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Xerocomellus cisalpinus (Simonini, H.Ladurner &amp; Peintner) Klofac.
+L'espèce a été initialement classée dans le genre Xerocomus sous le basionyme Xerocomus cisalpinus Simonini, H.Ladurner &amp; Peintner.
+</t>
         </is>
       </c>
     </row>
@@ -545,19 +555,21 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description du sporophore</t>
+          <t>Taxonomie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Les bolets sont des champignons dont l'hyménophore, constitué de tubes et terminés par des pores, se sépare facilement de la chair du chapeau. Ce chapeau d'abord rond, recouvert d'une cuticule, devient convexe à mesure qu’il vieillit. Ils ont un pied (stipe) central assez épais et une chair compacte. Les caractéristiques de Xerocomellus cisalpinus, le Bolet cisalpin, sont les suivantes :
-Son chapeau mesure de 3 à 8 cm, il est très variable de couleur, de crème jaunâtre à brun rougeâtre ou plus au moins olivâtre, se craquelant vite en tous sens en petites aréoles irrégulières, laissant voir la chair rose sous-jacente[2].
-L'hyménophore présente des tubes jaunes puis jaune olivâtre terne, un peu bleuissants. Les pores sont concolores aux tubes[2].
-Son stipe mesure 3 à 8 cm x 0,5 à 1,5 cm, d'abord jaune puis plus au moins teinté de rouge assez vif[2].
-La chair est jaune pâle ou blanchâtre, avec un bleuissement typique, débutant par la base du pied et limité à ce dernier (ou presque). La saveur est douce et l'odeur est faible[2].
-Caractéristiques microscopiques
-Les spores mesurent 11 à 15 µm x 4,5 à 5 µm. Elles sont allongées-fusoïdes, longitudinalement striées (stries très fines et difficiles à voir)[2].
-</t>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Xerocomellus cisalpinus a pour synonymes :
+Boletus cisalpinus (Simonini, H.Ladurner &amp; Peintner) Watling &amp; A.E.Hills
+Xerocomus cisalpinus Simonini, H.Ladurner &amp; Peintner
+Xerocomus gracilis int</t>
         </is>
       </c>
     </row>
@@ -582,12 +594,88 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Description du sporophore</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les bolets sont des champignons dont l'hyménophore, constitué de tubes et terminés par des pores, se sépare facilement de la chair du chapeau. Ce chapeau d'abord rond, recouvert d'une cuticule, devient convexe à mesure qu’il vieillit. Ils ont un pied (stipe) central assez épais et une chair compacte. Les caractéristiques de Xerocomellus cisalpinus, le Bolet cisalpin, sont les suivantes :
+Son chapeau mesure de 3 à 8 cm, il est très variable de couleur, de crème jaunâtre à brun rougeâtre ou plus au moins olivâtre, se craquelant vite en tous sens en petites aréoles irrégulières, laissant voir la chair rose sous-jacente.
+L'hyménophore présente des tubes jaunes puis jaune olivâtre terne, un peu bleuissants. Les pores sont concolores aux tubes.
+Son stipe mesure 3 à 8 cm x 0,5 à 1,5 cm, d'abord jaune puis plus au moins teinté de rouge assez vif.
+La chair est jaune pâle ou blanchâtre, avec un bleuissement typique, débutant par la base du pied et limité à ce dernier (ou presque). La saveur est douce et l'odeur est faible.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Xerocomellus_cisalpinus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Xerocomellus_cisalpinus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description du sporophore</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Caractéristiques microscopiques</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les spores mesurent 11 à 15 µm x 4,5 à 5 µm. Elles sont allongées-fusoïdes, longitudinalement striées (stries très fines et difficiles à voir).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Xerocomellus_cisalpinus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Xerocomellus_cisalpinus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Variétés et formes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (11 février 2024)[1] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (11 février 2024) :
 Boletus cisalpinus f. aereomaculatus
 Boletus cisalpinus f. cisalpinus</t>
         </is>
